--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3932.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3932.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.426572036972192</v>
+        <v>0.6534544229507446</v>
       </c>
       <c r="B1">
-        <v>2.336209209198441</v>
+        <v>0.6806876659393311</v>
       </c>
       <c r="C1">
-        <v>6.316190082454242</v>
+        <v>2.116748332977295</v>
       </c>
       <c r="D1">
-        <v>3.904031315600466</v>
+        <v>3.648826599121094</v>
       </c>
       <c r="E1">
-        <v>1.15613549388294</v>
+        <v>1.256515264511108</v>
       </c>
     </row>
   </sheetData>
